--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/heatmap_global_data_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/heatmap_global_data_No_Lineal_Estacionario_SETAR.xlsx
@@ -444,31 +444,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.665713940848634</v>
+        <v>0.6252526207601822</v>
       </c>
       <c r="C2">
-        <v>0.647131607821703</v>
+        <v>0.6115226537109912</v>
       </c>
       <c r="D2">
-        <v>0.7129339594053906</v>
+        <v>0.6429421623577039</v>
       </c>
       <c r="E2">
-        <v>0.7245748680094141</v>
+        <v>0.6485030195483187</v>
       </c>
       <c r="F2">
-        <v>0.7035312575577468</v>
+        <v>0.6617340399830299</v>
       </c>
       <c r="G2">
-        <v>0.7211400044162274</v>
+        <v>0.6958597370951036</v>
       </c>
       <c r="H2">
-        <v>0.709895009513956</v>
+        <v>0.6790616759574563</v>
       </c>
       <c r="I2">
-        <v>0.6322477131688988</v>
+        <v>0.6014579467555505</v>
       </c>
       <c r="J2">
-        <v>0.9001271265168816</v>
+        <v>0.6693422934082163</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -476,31 +476,31 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>0.6645563381915951</v>
+        <v>0.6328948958871112</v>
       </c>
       <c r="C3">
-        <v>0.6387781983476837</v>
+        <v>0.6105061814698909</v>
       </c>
       <c r="D3">
-        <v>0.6927551021447618</v>
+        <v>0.6597272638875293</v>
       </c>
       <c r="E3">
-        <v>0.7166134370967593</v>
+        <v>0.6689745337779672</v>
       </c>
       <c r="F3">
-        <v>0.7113671716621648</v>
+        <v>0.671433859952521</v>
       </c>
       <c r="G3">
-        <v>0.7258043778608845</v>
+        <v>0.7047307197580646</v>
       </c>
       <c r="H3">
-        <v>0.7046074874561903</v>
+        <v>0.6891776358088656</v>
       </c>
       <c r="I3">
-        <v>0.6167276231584794</v>
+        <v>0.6091631725583236</v>
       </c>
       <c r="J3">
-        <v>0.888373636049735</v>
+        <v>0.6792272693479734</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -508,31 +508,31 @@
         <v>30</v>
       </c>
       <c r="B4">
-        <v>0.6667156546733405</v>
+        <v>0.6351069657946222</v>
       </c>
       <c r="C4">
-        <v>0.6444787228878719</v>
+        <v>0.6191905794636839</v>
       </c>
       <c r="D4">
-        <v>0.6985621160566644</v>
+        <v>0.6607461638369755</v>
       </c>
       <c r="E4">
-        <v>0.7242634814566836</v>
+        <v>0.6666635774630232</v>
       </c>
       <c r="F4">
-        <v>0.7115839334031406</v>
+        <v>0.6816002404638435</v>
       </c>
       <c r="G4">
-        <v>0.7229425387064896</v>
+        <v>0.7057097965912593</v>
       </c>
       <c r="H4">
-        <v>0.7101747710954444</v>
+        <v>0.6948030281436006</v>
       </c>
       <c r="I4">
-        <v>0.6332213953123457</v>
+        <v>0.6089098619418625</v>
       </c>
       <c r="J4">
-        <v>0.9144369121101344</v>
+        <v>0.6730784396565838</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -540,31 +540,31 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.6615292813969161</v>
+        <v>0.6296112109136516</v>
       </c>
       <c r="C5">
-        <v>0.6404604772955071</v>
+        <v>0.6172670560654613</v>
       </c>
       <c r="D5">
-        <v>0.6791407632310854</v>
+        <v>0.6561263639434662</v>
       </c>
       <c r="E5">
-        <v>0.7240299305229702</v>
+        <v>0.6676294084403145</v>
       </c>
       <c r="F5">
-        <v>0.7156707932082101</v>
+        <v>0.6859773021489359</v>
       </c>
       <c r="G5">
-        <v>0.7447845475734969</v>
+        <v>0.7035325516363372</v>
       </c>
       <c r="H5">
-        <v>0.7175246340748289</v>
+        <v>0.6832604754996421</v>
       </c>
       <c r="I5">
-        <v>0.6266411458939484</v>
+        <v>0.605961835027105</v>
       </c>
       <c r="J5">
-        <v>0.8972757458314203</v>
+        <v>0.6725238171670227</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -572,31 +572,31 @@
         <v>50</v>
       </c>
       <c r="B6">
-        <v>0.6620003676271295</v>
+        <v>0.6257982614985358</v>
       </c>
       <c r="C6">
-        <v>0.6457990525229709</v>
+        <v>0.6069574066118956</v>
       </c>
       <c r="D6">
-        <v>0.6949129175544785</v>
+        <v>0.6494160910421728</v>
       </c>
       <c r="E6">
-        <v>0.7349531908852894</v>
+        <v>0.6582926903546432</v>
       </c>
       <c r="F6">
-        <v>0.7242411280671145</v>
+        <v>0.6768286553107764</v>
       </c>
       <c r="G6">
-        <v>0.7414558852064858</v>
+        <v>0.7019304081927638</v>
       </c>
       <c r="H6">
-        <v>0.7093707955505162</v>
+        <v>0.6803384920575407</v>
       </c>
       <c r="I6">
-        <v>0.6187332405688017</v>
+        <v>0.6035235594163624</v>
       </c>
       <c r="J6">
-        <v>0.9052714559783743</v>
+        <v>0.6730176862250317</v>
       </c>
     </row>
   </sheetData>
